--- a/excels/Соответствия складов 19.10.xlsx
+++ b/excels/Соответствия складов 19.10.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -54,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -209,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -386,26 +386,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -413,7 +413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>130744</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -429,7 +429,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -437,7 +437,7 @@
         <v>120762</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -445,7 +445,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -453,7 +453,7 @@
         <v>117986</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -461,7 +461,7 @@
         <v>159402</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -469,7 +469,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -477,1192 +477,1192 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.75" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="15.75" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="15.75" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15.75" thickBot="1">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15.75" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15.75" thickBot="1">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15.75" thickBot="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15.75" thickBot="1">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15.75" thickBot="1">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="15.75" thickBot="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="15.75" thickBot="1">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="15.75" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="15.75" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="15.75" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="15.75" thickBot="1">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="15.75" thickBot="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="15.75" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="15.75" thickBot="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="15.75" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="15.75" thickBot="1">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="15.75" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="15.75" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="15.75" thickBot="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="15.75" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="15.75" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="15.75" thickBot="1">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="15.75" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="15.75" thickBot="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="15.75" thickBot="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="15.75" thickBot="1">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="15.75" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="15.75" thickBot="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="15.75" thickBot="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="15.75" thickBot="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="15.75" thickBot="1">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="15.75" thickBot="1">
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="15.75" thickBot="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="15.75" thickBot="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="15.75" thickBot="1">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="15.75" thickBot="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="15.75" thickBot="1">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="15.75" thickBot="1">
       <c r="A123" s="2"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="15.75" thickBot="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="15.75" thickBot="1">
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="15.75" thickBot="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="15.75" thickBot="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="15.75" thickBot="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="15.75" thickBot="1">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="15.75" thickBot="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="15.75" thickBot="1">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="15.75" thickBot="1">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="15.75" thickBot="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="15.75" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="15.75" thickBot="1">
       <c r="A135" s="2"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="15.75" thickBot="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="15.75" thickBot="1">
       <c r="A137" s="2"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="15.75" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="15.75" thickBot="1">
       <c r="A139" s="2"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="15.75" thickBot="1">
       <c r="A140" s="2"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="15.75" thickBot="1">
       <c r="A141" s="2"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="15.75" thickBot="1">
       <c r="A142" s="2"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="15.75" thickBot="1">
       <c r="A143" s="2"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="15.75" thickBot="1">
       <c r="A144" s="2"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="15.75" thickBot="1">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="15.75" thickBot="1">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="15.75" thickBot="1">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="15.75" thickBot="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="15.75" thickBot="1">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="15.75" thickBot="1">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="15.75" thickBot="1">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="15.75" thickBot="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="15.75" thickBot="1">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="15.75" thickBot="1">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="15.75" thickBot="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="15.75" thickBot="1">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="15.75" thickBot="1">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="15.75" thickBot="1">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="15.75" thickBot="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="15.75" thickBot="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="15.75" thickBot="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="15.75" thickBot="1">
       <c r="A162" s="2"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="15.75" thickBot="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="15.75" thickBot="1">
       <c r="A164" s="2"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="15.75" thickBot="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="15.75" thickBot="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="15.75" thickBot="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="15.75" thickBot="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="15.75" thickBot="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="15.75" thickBot="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="15.75" thickBot="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="15.75" thickBot="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="15.75" thickBot="1">
       <c r="A173" s="2"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="15.75" thickBot="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="15.75" thickBot="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="15.75" thickBot="1">
       <c r="A176" s="2"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="15.75" thickBot="1">
       <c r="A177" s="2"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="15.75" thickBot="1">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="15.75" thickBot="1">
       <c r="A179" s="2"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="15.75" thickBot="1">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="15.75" thickBot="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="15.75" thickBot="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="15.75" thickBot="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="15.75" thickBot="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="15.75" thickBot="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="15.75" thickBot="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="15.75" thickBot="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="15.75" thickBot="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="15.75" thickBot="1">
       <c r="A189" s="2"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="15.75" thickBot="1">
       <c r="A190" s="2"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="15.75" thickBot="1">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="15.75" thickBot="1">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="15.75" thickBot="1">
       <c r="A193" s="2"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="15.75" thickBot="1">
       <c r="A194" s="2"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="15.75" thickBot="1">
       <c r="A195" s="2"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="15.75" thickBot="1">
       <c r="A196" s="2"/>
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="15.75" thickBot="1">
       <c r="A197" s="2"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="15.75" thickBot="1">
       <c r="A198" s="2"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="15.75" thickBot="1">
       <c r="A199" s="2"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="15.75" thickBot="1">
       <c r="A200" s="2"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="15.75" thickBot="1">
       <c r="A201" s="2"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="15.75" thickBot="1">
       <c r="A202" s="2"/>
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="15.75" thickBot="1">
       <c r="A203" s="2"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="15.75" thickBot="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="15.75" thickBot="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="15.75" thickBot="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="15.75" thickBot="1">
       <c r="A207" s="2"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="15.75" thickBot="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="15.75" thickBot="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="15.75" thickBot="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="15.75" thickBot="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="15.75" thickBot="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="15.75" thickBot="1">
       <c r="A213" s="2"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="15.75" thickBot="1">
       <c r="A214" s="2"/>
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="15.75" thickBot="1">
       <c r="A215" s="2"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="15.75" thickBot="1">
       <c r="A216" s="2"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" ht="15.75" thickBot="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="15.75" thickBot="1">
       <c r="A218" s="2"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="15.75" thickBot="1">
       <c r="A219" s="2"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="15.75" thickBot="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="15.75" thickBot="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="15.75" thickBot="1">
       <c r="A222" s="2"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="15.75" thickBot="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" ht="15.75" thickBot="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" ht="15.75" thickBot="1">
       <c r="A225" s="2"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="15.75" thickBot="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="15.75" thickBot="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="15.75" thickBot="1">
       <c r="A228" s="2"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="15.75" thickBot="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="15.75" thickBot="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="15.75" thickBot="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="15.75" thickBot="1">
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="15.75" thickBot="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="15.75" thickBot="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="15.75" thickBot="1">
       <c r="A235" s="2"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="15.75" thickBot="1">
       <c r="A236" s="2"/>
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="15.75" thickBot="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="15.75" thickBot="1">
       <c r="A238" s="2"/>
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="15.75" thickBot="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="15.75" thickBot="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" ht="15.75" thickBot="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="15.75" thickBot="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="15.75" thickBot="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="15.75" thickBot="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="15.75" thickBot="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="15.75" thickBot="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="15.75" thickBot="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="15.75" thickBot="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="15.75" thickBot="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" ht="15.75" thickBot="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" ht="15.75" thickBot="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="15.75" thickBot="1">
       <c r="A252" s="2"/>
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="15.75" thickBot="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="15.75" thickBot="1">
       <c r="A254" s="2"/>
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="15.75" thickBot="1">
       <c r="A255" s="2"/>
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="15.75" thickBot="1">
       <c r="A256" s="2"/>
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="15.75" thickBot="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" ht="15.75" thickBot="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" ht="15.75" thickBot="1">
       <c r="A259" s="2"/>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="15.75" thickBot="1">
       <c r="A260" s="2"/>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="15.75" thickBot="1">
       <c r="A261" s="2"/>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="15.75" thickBot="1">
       <c r="A262" s="2"/>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="15.75" thickBot="1">
       <c r="A263" s="2"/>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="15.75" thickBot="1">
       <c r="A264" s="2"/>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="15.75" thickBot="1">
       <c r="A265" s="2"/>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="15.75" thickBot="1">
       <c r="A266" s="2"/>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="15.75" thickBot="1">
       <c r="A267" s="2"/>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="15.75" thickBot="1">
       <c r="A268" s="2"/>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="15.75" thickBot="1">
       <c r="A269" s="2"/>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="15.75" thickBot="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="15.75" thickBot="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" ht="15.75" thickBot="1">
       <c r="A272" s="2"/>
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="15.75" thickBot="1">
       <c r="A273" s="2"/>
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" ht="15.75" thickBot="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" ht="15.75" thickBot="1">
       <c r="A275" s="2"/>
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="15.75" thickBot="1">
       <c r="A276" s="2"/>
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" ht="15.75" thickBot="1">
       <c r="A277" s="2"/>
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="15.75" thickBot="1">
       <c r="A278" s="2"/>
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" ht="15.75" thickBot="1">
       <c r="A279" s="2"/>
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" ht="15.75" thickBot="1">
       <c r="A280" s="2"/>
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="15.75" thickBot="1">
       <c r="A281" s="2"/>
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="15.75" thickBot="1">
       <c r="A282" s="2"/>
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" ht="15.75" thickBot="1">
       <c r="A283" s="2"/>
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="15.75" thickBot="1">
       <c r="A284" s="2"/>
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="15.75" thickBot="1">
       <c r="A285" s="2"/>
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="15.75" thickBot="1">
       <c r="A286" s="2"/>
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" ht="15.75" thickBot="1">
       <c r="A287" s="2"/>
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="15.75" thickBot="1">
       <c r="A288" s="2"/>
       <c r="B288" s="1"/>
     </row>
-    <row r="289" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="15.75" thickBot="1">
       <c r="A289" s="2"/>
       <c r="B289" s="1"/>
     </row>
-    <row r="290" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="15.75" thickBot="1">
       <c r="A290" s="2"/>
       <c r="B290" s="1"/>
     </row>
-    <row r="291" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="15.75" thickBot="1">
       <c r="A291" s="2"/>
       <c r="B291" s="1"/>
     </row>
-    <row r="292" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="15.75" thickBot="1">
       <c r="A292" s="2"/>
       <c r="B292" s="1"/>
     </row>
-    <row r="293" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="15.75" thickBot="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
     </row>
-    <row r="294" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="15.75" thickBot="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="15.75" thickBot="1">
       <c r="A295" s="2"/>
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="15.75" thickBot="1">
       <c r="A296" s="2"/>
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="15.75" thickBot="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="15.75" thickBot="1">
       <c r="A298" s="2"/>
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="15.75" thickBot="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="15.75" thickBot="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="15.75" thickBot="1">
       <c r="A301" s="2"/>
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" ht="15.75" thickBot="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="15.75" thickBot="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" ht="15.75" thickBot="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
     </row>
-    <row r="305" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" ht="15.75" thickBot="1">
       <c r="A305" s="2"/>
       <c r="B305" s="1"/>
     </row>
-    <row r="306" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" ht="15.75" thickBot="1">
       <c r="A306" s="2"/>
       <c r="B306" s="1"/>
     </row>
-    <row r="307" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" ht="15.75" thickBot="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
     </row>
